--- a/team_specific_matrix/USC Upstate_B.xlsx
+++ b/team_specific_matrix/USC Upstate_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2276923076923077</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="C2">
-        <v>0.5015384615384615</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02153846153846154</v>
+        <v>0.02583979328165375</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1723076923076923</v>
+        <v>0.1679586563307494</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07692307692307693</v>
+        <v>0.06976744186046512</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005988023952095809</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C3">
-        <v>0.01796407185628742</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02395209580838323</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.01197604790419162</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="P3">
-        <v>0.7425149700598802</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1976047904191617</v>
+        <v>0.1805555555555556</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0303030303030303</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5454545454545454</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4242424242424243</v>
+        <v>0.3720930232558139</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02469135802469136</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01234567901234568</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06172839506172839</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3024691358024691</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006172839506172839</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1728395061728395</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="R6">
-        <v>0.08024691358024691</v>
+        <v>0.0625</v>
       </c>
       <c r="S6">
-        <v>0.3395061728395062</v>
+        <v>0.3365384615384616</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.144</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.064</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.16</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.016</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.192</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="R7">
-        <v>0.064</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="S7">
-        <v>0.36</v>
+        <v>0.3924050632911392</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.126099706744868</v>
+        <v>0.1279620853080569</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02052785923753666</v>
+        <v>0.01658767772511848</v>
       </c>
       <c r="E8">
-        <v>0.002932551319648094</v>
+        <v>0.002369668246445498</v>
       </c>
       <c r="F8">
-        <v>0.05571847507331378</v>
+        <v>0.05213270142180094</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09970674486803519</v>
+        <v>0.1042654028436019</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02346041055718475</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2111436950146628</v>
+        <v>0.2014218009478673</v>
       </c>
       <c r="R8">
-        <v>0.08797653958944282</v>
+        <v>0.0924170616113744</v>
       </c>
       <c r="S8">
-        <v>0.3724340175953079</v>
+        <v>0.3838862559241706</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1689189189189189</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02702702702702703</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05405405405405406</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1148648648648649</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02027027027027027</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1824324324324324</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="R9">
-        <v>0.06756756756756757</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="S9">
-        <v>0.3648648648648649</v>
+        <v>0.3655913978494624</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1556224899598393</v>
+        <v>0.1375579598145286</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02108433734939759</v>
+        <v>0.02163833075734158</v>
       </c>
       <c r="E10">
-        <v>0.001004016064257028</v>
+        <v>0.0007727975270479134</v>
       </c>
       <c r="F10">
-        <v>0.06124497991967871</v>
+        <v>0.06182380216383308</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1184738955823293</v>
+        <v>0.1306027820710974</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01907630522088354</v>
+        <v>0.02241112828438949</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1987951807228916</v>
+        <v>0.1970633693972179</v>
       </c>
       <c r="R10">
-        <v>0.06726907630522089</v>
+        <v>0.06955177743431221</v>
       </c>
       <c r="S10">
-        <v>0.357429718875502</v>
+        <v>0.3585780525502318</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1651376146788991</v>
+        <v>0.1586715867158671</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1055045871559633</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="K11">
-        <v>0.2614678899082569</v>
+        <v>0.2583025830258303</v>
       </c>
       <c r="L11">
-        <v>0.4541284403669725</v>
+        <v>0.4538745387453875</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01376146788990826</v>
+        <v>0.01107011070110701</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6071428571428571</v>
+        <v>0.6357142857142857</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>0.008928571428571428</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="L12">
-        <v>0.1160714285714286</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05357142857142857</v>
+        <v>0.04285714285714286</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5897435897435898</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.358974358974359</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05128205128205128</v>
+        <v>0.06818181818181818</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006097560975609756</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1646341463414634</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="I15">
-        <v>0.07926829268292683</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="J15">
-        <v>0.3414634146341464</v>
+        <v>0.3738317757009346</v>
       </c>
       <c r="K15">
-        <v>0.07317073170731707</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006097560975609756</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03048780487804878</v>
+        <v>0.03271028037383177</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.298780487804878</v>
+        <v>0.294392523364486</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2268041237113402</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="I16">
-        <v>0.1082474226804124</v>
+        <v>0.09583333333333334</v>
       </c>
       <c r="J16">
-        <v>0.4123711340206185</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K16">
-        <v>0.08247422680412371</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0154639175257732</v>
+        <v>0.0125</v>
       </c>
       <c r="N16">
-        <v>0.01030927835051546</v>
+        <v>0.0125</v>
       </c>
       <c r="O16">
-        <v>0.04639175257731959</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09793814432989691</v>
+        <v>0.1083333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02325581395348837</v>
+        <v>0.02277904328018223</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1511627906976744</v>
+        <v>0.1526195899772209</v>
       </c>
       <c r="I17">
-        <v>0.09011627906976744</v>
+        <v>0.08200455580865604</v>
       </c>
       <c r="J17">
-        <v>0.4476744186046512</v>
+        <v>0.4533029612756264</v>
       </c>
       <c r="K17">
-        <v>0.0872093023255814</v>
+        <v>0.0888382687927107</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02906976744186046</v>
+        <v>0.02277904328018223</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06686046511627906</v>
+        <v>0.06378132118451026</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1046511627906977</v>
+        <v>0.1138952164009112</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.015625</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.15625</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="I18">
-        <v>0.1015625</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="J18">
-        <v>0.4765625</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="K18">
-        <v>0.0625</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.015625</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="N18">
-        <v>0.0078125</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="O18">
-        <v>0.0390625</v>
+        <v>0.06470588235294118</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.125</v>
+        <v>0.1235294117647059</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02051835853131749</v>
+        <v>0.01954120645709431</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2116630669546436</v>
+        <v>0.2098555649957519</v>
       </c>
       <c r="I19">
-        <v>0.08207343412526998</v>
+        <v>0.08581138487680544</v>
       </c>
       <c r="J19">
-        <v>0.3747300215982721</v>
+        <v>0.3789294817332201</v>
       </c>
       <c r="K19">
-        <v>0.101511879049676</v>
+        <v>0.0994052676295667</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02699784017278618</v>
+        <v>0.02633814783347494</v>
       </c>
       <c r="N19">
-        <v>0.001079913606911447</v>
+        <v>0.001699235344095157</v>
       </c>
       <c r="O19">
-        <v>0.07991360691144708</v>
+        <v>0.08071367884451996</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.101511879049676</v>
+        <v>0.09770603228547153</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/USC Upstate_B.xlsx
+++ b/team_specific_matrix/USC Upstate_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2170542635658915</v>
+        <v>0.2134292565947242</v>
       </c>
       <c r="C2">
-        <v>0.5193798449612403</v>
+        <v>0.5251798561151079</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02583979328165375</v>
+        <v>0.02398081534772182</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1679586563307494</v>
+        <v>0.1654676258992806</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06976744186046512</v>
+        <v>0.07194244604316546</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009259259259259259</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C3">
-        <v>0.01851851851851852</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04166666666666666</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.009259259259259259</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="P3">
-        <v>0.7407407407407407</v>
+        <v>0.7350427350427351</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1805555555555556</v>
+        <v>0.188034188034188</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09302325581395349</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5348837209302325</v>
+        <v>0.58</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3720930232558139</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03846153846153846</v>
+        <v>0.04</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01923076923076923</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05288461538461538</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3076923076923077</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01923076923076923</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1634615384615385</v>
+        <v>0.1688888888888889</v>
       </c>
       <c r="R6">
-        <v>0.0625</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="S6">
-        <v>0.3365384615384616</v>
+        <v>0.3377777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1392405063291139</v>
+        <v>0.1420118343195266</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006329113924050633</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05696202531645569</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1518987341772152</v>
+        <v>0.1479289940828402</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0189873417721519</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1708860759493671</v>
+        <v>0.1775147928994083</v>
       </c>
       <c r="R7">
-        <v>0.06329113924050633</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="S7">
-        <v>0.3924050632911392</v>
+        <v>0.378698224852071</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1279620853080569</v>
+        <v>0.1294642857142857</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01658767772511848</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E8">
-        <v>0.002369668246445498</v>
+        <v>0.002232142857142857</v>
       </c>
       <c r="F8">
-        <v>0.05213270142180094</v>
+        <v>0.05133928571428571</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1042654028436019</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01895734597156398</v>
+        <v>0.02008928571428572</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2014218009478673</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="R8">
-        <v>0.0924170616113744</v>
+        <v>0.08705357142857142</v>
       </c>
       <c r="S8">
-        <v>0.3838862559241706</v>
+        <v>0.3883928571428572</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1451612903225807</v>
+        <v>0.142156862745098</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02150537634408602</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08064516129032258</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1075268817204301</v>
+        <v>0.1127450980392157</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02150537634408602</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1827956989247312</v>
+        <v>0.1813725490196078</v>
       </c>
       <c r="R9">
-        <v>0.07526881720430108</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="S9">
-        <v>0.3655913978494624</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1375579598145286</v>
+        <v>0.1384505021520804</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02163833075734158</v>
+        <v>0.02295552367288379</v>
       </c>
       <c r="E10">
-        <v>0.0007727975270479134</v>
+        <v>0.0007173601147776184</v>
       </c>
       <c r="F10">
-        <v>0.06182380216383308</v>
+        <v>0.06169296987087518</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1306027820710974</v>
+        <v>0.1327116212338594</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02241112828438949</v>
+        <v>0.02223816355810617</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1970633693972179</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="R10">
-        <v>0.06955177743431221</v>
+        <v>0.07101865136298421</v>
       </c>
       <c r="S10">
-        <v>0.3585780525502318</v>
+        <v>0.3550932568149211</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1586715867158671</v>
+        <v>0.1615120274914089</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1180811808118081</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="K11">
-        <v>0.2583025830258303</v>
+        <v>0.2646048109965636</v>
       </c>
       <c r="L11">
-        <v>0.4538745387453875</v>
+        <v>0.4398625429553265</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01107011070110701</v>
+        <v>0.01030927835051546</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6357142857142857</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.1986301369863014</v>
       </c>
       <c r="K12">
-        <v>0.007142857142857143</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="L12">
-        <v>0.1142857142857143</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04285714285714286</v>
+        <v>0.0410958904109589</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6136363636363636</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3181818181818182</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06818181818181818</v>
+        <v>0.06122448979591837</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.004672897196261682</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1495327102803738</v>
+        <v>0.1452991452991453</v>
       </c>
       <c r="I15">
-        <v>0.07943925233644859</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J15">
-        <v>0.3738317757009346</v>
+        <v>0.3803418803418803</v>
       </c>
       <c r="K15">
-        <v>0.06074766355140187</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004672897196261682</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03271028037383177</v>
+        <v>0.03418803418803419</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.294392523364486</v>
+        <v>0.2991452991452991</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2083333333333333</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="I16">
-        <v>0.09583333333333334</v>
+        <v>0.09961685823754789</v>
       </c>
       <c r="J16">
-        <v>0.4166666666666667</v>
+        <v>0.4061302681992337</v>
       </c>
       <c r="K16">
-        <v>0.09166666666666666</v>
+        <v>0.08812260536398467</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0125</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="N16">
-        <v>0.0125</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="O16">
-        <v>0.05416666666666667</v>
+        <v>0.05363984674329502</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1083333333333333</v>
+        <v>0.10727969348659</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02277904328018223</v>
+        <v>0.02330508474576271</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1526195899772209</v>
+        <v>0.1504237288135593</v>
       </c>
       <c r="I17">
-        <v>0.08200455580865604</v>
+        <v>0.08898305084745763</v>
       </c>
       <c r="J17">
-        <v>0.4533029612756264</v>
+        <v>0.4470338983050847</v>
       </c>
       <c r="K17">
-        <v>0.0888382687927107</v>
+        <v>0.09110169491525423</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02277904328018223</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06378132118451026</v>
+        <v>0.06567796610169492</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1138952164009112</v>
+        <v>0.1122881355932203</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01176470588235294</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1470588235294118</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="I18">
-        <v>0.09411764705882353</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="J18">
-        <v>0.4411764705882353</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K18">
-        <v>0.09411764705882353</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01176470588235294</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="N18">
-        <v>0.01176470588235294</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="O18">
-        <v>0.06470588235294118</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1235294117647059</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01954120645709431</v>
+        <v>0.01825396825396826</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2098555649957519</v>
+        <v>0.2079365079365079</v>
       </c>
       <c r="I19">
-        <v>0.08581138487680544</v>
+        <v>0.08492063492063492</v>
       </c>
       <c r="J19">
-        <v>0.3789294817332201</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="K19">
-        <v>0.0994052676295667</v>
+        <v>0.09841269841269841</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02633814783347494</v>
+        <v>0.02698412698412699</v>
       </c>
       <c r="N19">
-        <v>0.001699235344095157</v>
+        <v>0.001587301587301587</v>
       </c>
       <c r="O19">
-        <v>0.08071367884451996</v>
+        <v>0.08015873015873017</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09770603228547153</v>
+        <v>0.09841269841269841</v>
       </c>
     </row>
   </sheetData>
